--- a/Computer Sikho-DB-Documentation v1.0.xlsx
+++ b/Computer Sikho-DB-Documentation v1.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jayus Folder\VITA\DB Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0EAAB0-EE0E-47EC-BD04-9ABBA92CD642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jayant Ponkshe</author>
   </authors>
   <commentList>
-    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{941CD5BC-BA41-4F41-9616-E60A289CC1C6}">
+    <comment ref="L23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L25" authorId="0" shapeId="0" xr:uid="{9AF18FEA-9A9A-4013-B747-E14E7C72842A}">
+    <comment ref="L25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{D516AA38-4F4D-4925-A1AF-E5843D66C14E}">
+    <comment ref="C33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A50" authorId="0" shapeId="0" xr:uid="{68DA76A8-7702-44A2-AC99-E9F3D8DE5B44}">
+    <comment ref="A50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="0" shapeId="0" xr:uid="{E77CC8F3-6751-401D-B754-5E1DF6570FF1}">
+    <comment ref="A61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="0" shapeId="0" xr:uid="{B3194C5C-5D85-4742-9B00-9AFBE97CD2EC}">
+    <comment ref="A65" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="134">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -502,9 +501,6 @@
   </si>
   <si>
     <t>Closure Reason Desc</t>
-  </si>
-  <si>
-    <t>These are defined reasons</t>
   </si>
   <si>
     <t>Student id</t>
@@ -603,7 +599,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);\(###\)"/>
   </numFmts>
@@ -1481,10 +1477,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1510,7 +1508,7 @@
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -2119,7 +2117,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -2202,7 +2200,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>27</v>
@@ -2219,7 +2217,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E37" s="34"/>
       <c r="L37" s="3" t="s">
@@ -2240,13 +2238,13 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="34" t="s">
         <v>130</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>131</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>29</v>
@@ -2263,7 +2261,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
@@ -2317,14 +2315,24 @@
       <c r="A44" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="B44" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>108</v>
+      </c>
       <c r="E44" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
+        <v>108</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H46" s="1"/>
@@ -2444,7 +2452,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
@@ -2452,7 +2460,7 @@
         <v>20</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
@@ -2471,7 +2479,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -2479,7 +2487,7 @@
         <v>20</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F52" s="30"/>
       <c r="G52" s="30"/>
@@ -2537,7 +2545,7 @@
       <c r="N55" s="36"/>
       <c r="O55" s="36"/>
       <c r="P55" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q55" s="36"/>
       <c r="R55" s="36" t="s">
@@ -2644,7 +2652,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
@@ -2652,7 +2660,7 @@
         <v>20</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F60" s="30"/>
       <c r="G60" s="30" t="s">
@@ -2681,7 +2689,7 @@
       <c r="F61" s="30"/>
       <c r="G61" s="30"/>
       <c r="L61" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>18</v>
@@ -2743,42 +2751,53 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B68" s="30"/>
+        <v>118</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>18</v>
+      </c>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F68" s="30"/>
       <c r="G68" s="30"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -3015,7 +3034,7 @@
     </row>
     <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -3080,7 +3099,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
@@ -3108,13 +3127,13 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
       <c r="D87" s="30"/>
       <c r="E87" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F87" s="30"/>
       <c r="G87" s="30"/>
@@ -3158,12 +3177,12 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L90" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L91" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
